--- a/CalcuResult/软件校准实验数据+实验图.xlsx
+++ b/CalcuResult/软件校准实验数据+实验图.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuewenliao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuewenliao/python_proj/SoftwareCalibration/CalcuResult/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62441467-2768-AA41-B1B5-15B89CF9C0D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5509DC2C-064C-C74B-B076-83EDEBC33D1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="1160" windowWidth="27840" windowHeight="16940" xr2:uid="{B9BD9DB6-4C5D-E544-BB43-3BFB6EB10886}"/>
+    <workbookView xWindow="7480" yWindow="2680" windowWidth="27840" windowHeight="16940" xr2:uid="{B9BD9DB6-4C5D-E544-BB43-3BFB6EB10886}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>GaussMethod</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>RandomMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NearestMethod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,6 +404,72 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-95A3-C24A-BF9F-65AAB1354791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NearestMethod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.628654970760234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8684210526315788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.257309941520468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.935672514619883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04D8-DE40-949D-BAA858D2390E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1034,6 +1104,72 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A1BA-0A4D-8A9E-52E0D0FCCF21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NearestMethod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0087719298245617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9035087719298245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4181286549707606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2836257309941521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50DA-9340-B154-21B06AF532AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1703,6 +1839,72 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NearestMethod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.3040935672514617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.345029239766081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.450292397660819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.780701754385966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0FD-6048-B799-59988A749BCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4064,25 +4266,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA2657F-24E0-A342-84E3-5B5937330A9C}">
-  <dimension ref="B1:Q5"/>
+  <dimension ref="B1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="17.1640625" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" customWidth="1"/>
     <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" customWidth="1"/>
+    <col min="24" max="24" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:24">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4092,6 +4300,9 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
@@ -4101,6 +4312,9 @@
       <c r="J1" t="s">
         <v>2</v>
       </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
       <c r="O1" t="s">
         <v>0</v>
       </c>
@@ -4110,8 +4324,11 @@
       <c r="Q1" t="s">
         <v>2</v>
       </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:24">
       <c r="B2" s="1">
         <v>2.6646365721173755</v>
       </c>
@@ -4121,6 +4338,9 @@
       <c r="D2" s="1">
         <v>4.5730994152046787</v>
       </c>
+      <c r="E2" s="1">
+        <v>2.628654970760234</v>
+      </c>
       <c r="H2" s="1">
         <v>4.1476509680059017</v>
       </c>
@@ -4130,6 +4350,9 @@
       <c r="J2" s="1">
         <v>6.60233918128655</v>
       </c>
+      <c r="K2" s="1">
+        <v>4.0087719298245617</v>
+      </c>
       <c r="O2" s="1">
         <v>6.7471445812680697</v>
       </c>
@@ -4139,8 +4362,14 @@
       <c r="Q2" s="1">
         <v>10.324561403508772</v>
       </c>
+      <c r="R2" s="1">
+        <v>6.3040935672514617</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:24">
       <c r="B3" s="1">
         <v>3.200109921702381</v>
       </c>
@@ -4150,6 +4379,9 @@
       <c r="D3" s="1">
         <v>4.4269005847953213</v>
       </c>
+      <c r="E3" s="1">
+        <v>3.8684210526315788</v>
+      </c>
       <c r="H3" s="1">
         <v>4.8512341182587431</v>
       </c>
@@ -4159,6 +4391,9 @@
       <c r="J3" s="1">
         <v>6.7543859649122808</v>
       </c>
+      <c r="K3" s="1">
+        <v>5.9035087719298245</v>
+      </c>
       <c r="O3" s="1">
         <v>7.8971023229139812</v>
       </c>
@@ -4168,8 +4403,14 @@
       <c r="Q3" s="1">
         <v>10.903508771929825</v>
       </c>
+      <c r="R3" s="1">
+        <v>9.345029239766081</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:24">
       <c r="B4" s="1">
         <v>3.69522186366232</v>
       </c>
@@ -4179,6 +4420,9 @@
       <c r="D4" s="1">
         <v>4.8538011695906436</v>
       </c>
+      <c r="E4" s="1">
+        <v>4.257309941520468</v>
+      </c>
       <c r="H4" s="1">
         <v>5.3868611444157946</v>
       </c>
@@ -4188,6 +4432,9 @@
       <c r="J4" s="1">
         <v>7.1491228070175437</v>
       </c>
+      <c r="K4" s="1">
+        <v>6.4181286549707606</v>
+      </c>
       <c r="O4" s="1">
         <v>8.8621298963924655</v>
       </c>
@@ -4197,8 +4444,14 @@
       <c r="Q4" s="1">
         <v>11.37719298245614</v>
       </c>
+      <c r="R4" s="1">
+        <v>10.450292397660819</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:24">
       <c r="B5" s="1">
         <v>4.466234740598364</v>
       </c>
@@ -4208,6 +4461,9 @@
       <c r="D5" s="1">
         <v>5.4619883040935671</v>
       </c>
+      <c r="E5" s="1">
+        <v>4.935672514619883</v>
+      </c>
       <c r="H5" s="1">
         <v>6.314967530136772</v>
       </c>
@@ -4217,6 +4473,9 @@
       <c r="J5" s="1">
         <v>7.9064327485380117</v>
       </c>
+      <c r="K5" s="1">
+        <v>7.2836257309941521</v>
+      </c>
       <c r="O5" s="1">
         <v>10.24052550044291</v>
       </c>
@@ -4226,6 +4485,12 @@
       <c r="Q5" s="1">
         <v>13.593567251461989</v>
       </c>
+      <c r="R5" s="1">
+        <v>11.780701754385966</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
